--- a/parameter_estimation/BTC_copula.xlsx
+++ b/parameter_estimation/BTC_copula.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>X1</t>
   </si>
@@ -29,13 +29,37 @@
     <t>3</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>Copula</t>
   </si>
   <si>
-    <t>parameter1</t>
-  </si>
-  <si>
-    <t>parameter2</t>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>nobs</t>
+  </si>
+  <si>
+    <t>logLik</t>
+  </si>
+  <si>
+    <t>AIC</t>
+  </si>
+  <si>
+    <t>BIC</t>
   </si>
   <si>
     <t>t</t>
@@ -45,6 +69,18 @@
   </si>
   <si>
     <t>2.13306911900212</t>
+  </si>
+  <si>
+    <t>478</t>
+  </si>
+  <si>
+    <t>140.380579629104</t>
+  </si>
+  <si>
+    <t>-276.761159258207</t>
+  </si>
+  <si>
+    <t>-268.421937793224</t>
   </si>
 </sst>
 </file>
@@ -109,10 +145,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -120,10 +156,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -131,10 +167,54 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
